--- a/notebooks/integrazioni_regionali/liguria/non_merged.xlsx
+++ b/notebooks/integrazioni_regionali/liguria/non_merged.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">from_dataset</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">CAPO VADO</t>
   </si>
   <si>
-    <t xml:space="preserve">CASONI</t>
-  </si>
-  <si>
     <t xml:space="preserve">CROCEFIESCHI - SANTUARIO</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">S. Maria di Sturla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELVAFERRIERE</t>
   </si>
   <si>
     <t xml:space="preserve">SESTRI LEVANTE</t>
@@ -263,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E62" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E60" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E60"/>
   <tableColumns count="5">
     <tableColumn id="1" name="from_dataset"/>
     <tableColumn id="2" name="from_sensor"/>
@@ -682,36 +676,36 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>537</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>9.48068</v>
+        <v>9.01824</v>
       </c>
       <c r="E8" t="n">
-        <v>44.43753</v>
+        <v>44.58458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>696</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>9.01824</v>
+        <v>7.5549</v>
       </c>
       <c r="E9" t="n">
-        <v>44.58458</v>
+        <v>43.82936</v>
       </c>
     </row>
     <row r="10">
@@ -719,16 +713,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>696</v>
+        <v>916</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>7.5549</v>
+        <v>8.64615</v>
       </c>
       <c r="E10" t="n">
-        <v>43.82936</v>
+        <v>44.39092</v>
       </c>
     </row>
     <row r="11">
@@ -736,67 +730,67 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>8.64615</v>
+        <v>7.68451</v>
       </c>
       <c r="E11" t="n">
-        <v>44.39092</v>
+        <v>43.9895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>929</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>7.68451</v>
+        <v>8.33939</v>
       </c>
       <c r="E12" t="n">
-        <v>43.9895</v>
+        <v>44.45176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>1045</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>8.33939</v>
+        <v>9.03475</v>
       </c>
       <c r="E13" t="n">
-        <v>44.45176</v>
+        <v>44.49291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>1045</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>9.03475</v>
+        <v>9.10336</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49291</v>
+        <v>44.51715</v>
       </c>
     </row>
     <row r="15">
@@ -804,16 +798,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>9.10336</v>
+        <v>8.32248</v>
       </c>
       <c r="E15" t="n">
-        <v>44.51715</v>
+        <v>44.36694</v>
       </c>
     </row>
     <row r="16">
@@ -821,16 +815,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>8.32248</v>
+        <v>8.9718</v>
       </c>
       <c r="E16" t="n">
-        <v>44.36694</v>
+        <v>44.40302</v>
       </c>
     </row>
     <row r="17">
@@ -838,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>8.9718</v>
+        <v>8.92317</v>
       </c>
       <c r="E17" t="n">
-        <v>44.40302</v>
+        <v>44.40816</v>
       </c>
     </row>
     <row r="18">
@@ -855,33 +849,33 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>8.92317</v>
+        <v>8.9726</v>
       </c>
       <c r="E18" t="n">
-        <v>44.40816</v>
+        <v>44.42367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>1315</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>8.9726</v>
+        <v>9.0438</v>
       </c>
       <c r="E19" t="n">
-        <v>44.42367</v>
+        <v>44.38237</v>
       </c>
     </row>
     <row r="20">
@@ -889,16 +883,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="n">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>9.0438</v>
+        <v>9.01292</v>
       </c>
       <c r="E20" t="n">
-        <v>44.38237</v>
+        <v>44.44908</v>
       </c>
     </row>
     <row r="21">
@@ -906,33 +900,33 @@
         <v>10</v>
       </c>
       <c r="B21" t="n">
-        <v>1318</v>
+        <v>1408</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="n">
-        <v>9.01292</v>
+        <v>8.9586</v>
       </c>
       <c r="E21" t="n">
-        <v>44.44908</v>
+        <v>44.645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>1408</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="n">
-        <v>8.9586</v>
+        <v>9.04717</v>
       </c>
       <c r="E22" t="n">
-        <v>44.645</v>
+        <v>44.44076</v>
       </c>
     </row>
     <row r="23">
@@ -940,50 +934,50 @@
         <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>9.04717</v>
+        <v>9.8097</v>
       </c>
       <c r="E23" t="n">
-        <v>44.44076</v>
+        <v>44.09449</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>1539</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>9.8097</v>
+        <v>8.82328</v>
       </c>
       <c r="E24" t="n">
-        <v>44.09449</v>
+        <v>44.54953</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>1539</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>8.82328</v>
+        <v>8.74603</v>
       </c>
       <c r="E25" t="n">
-        <v>44.54953</v>
+        <v>44.43946</v>
       </c>
     </row>
     <row r="26">
@@ -991,16 +985,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>8.74603</v>
+        <v>9.86892</v>
       </c>
       <c r="E26" t="n">
-        <v>44.43946</v>
+        <v>44.12951</v>
       </c>
     </row>
     <row r="27">
@@ -1008,16 +1002,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>9.86892</v>
+        <v>9.43978</v>
       </c>
       <c r="E27" t="n">
-        <v>44.12951</v>
+        <v>44.5598</v>
       </c>
     </row>
     <row r="28">
@@ -1025,33 +1019,33 @@
         <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>9.43978</v>
+        <v>9.04769</v>
       </c>
       <c r="E28" t="n">
-        <v>44.5598</v>
+        <v>44.51561</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>119</v>
+        <v>1739</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>9.04769</v>
+        <v>8.158406</v>
       </c>
       <c r="E29" t="n">
-        <v>44.51561</v>
+        <v>44.30403</v>
       </c>
     </row>
     <row r="30">
@@ -1059,16 +1053,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>8.158406</v>
+        <v>8.86297</v>
       </c>
       <c r="E30" t="n">
-        <v>44.30403</v>
+        <v>44.48905</v>
       </c>
     </row>
     <row r="31">
@@ -1076,16 +1070,16 @@
         <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>1745</v>
+        <v>1918</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="n">
-        <v>8.86297</v>
+        <v>9.4474</v>
       </c>
       <c r="E31" t="n">
-        <v>44.48905</v>
+        <v>44.40482</v>
       </c>
     </row>
     <row r="32">
@@ -1093,16 +1087,16 @@
         <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>1918</v>
+        <v>1975</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>9.4474</v>
+        <v>7.5533</v>
       </c>
       <c r="E32" t="n">
-        <v>44.40482</v>
+        <v>43.78481</v>
       </c>
     </row>
     <row r="33">
@@ -1110,33 +1104,33 @@
         <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>1975</v>
+        <v>2010</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
       <c r="D33" t="n">
-        <v>7.5533</v>
+        <v>9.18689</v>
       </c>
       <c r="E33" t="n">
-        <v>43.78481</v>
+        <v>44.44588</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B34" t="n">
-        <v>2010</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>9.18689</v>
+        <v>7.65607</v>
       </c>
       <c r="E34" t="n">
-        <v>44.44588</v>
+        <v>43.93209</v>
       </c>
     </row>
     <row r="35">
@@ -1144,16 +1138,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>7.65607</v>
+        <v>9.12602</v>
       </c>
       <c r="E35" t="n">
-        <v>43.93209</v>
+        <v>44.36616</v>
       </c>
     </row>
     <row r="36">
@@ -1161,16 +1155,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>9.12602</v>
+        <v>8.67306</v>
       </c>
       <c r="E36" t="n">
-        <v>44.36616</v>
+        <v>44.51775</v>
       </c>
     </row>
     <row r="37">
@@ -1178,33 +1172,33 @@
         <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>8.67306</v>
+        <v>9.45876</v>
       </c>
       <c r="E37" t="n">
-        <v>44.51775</v>
+        <v>44.47287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B38" t="n">
-        <v>136</v>
+        <v>2311</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>9.45876</v>
+        <v>9.62481</v>
       </c>
       <c r="E38" t="n">
-        <v>44.47287</v>
+        <v>44.41632</v>
       </c>
     </row>
     <row r="39">
@@ -1212,101 +1206,101 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>2311</v>
+        <v>2378</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>9.62481</v>
+        <v>9.8515</v>
       </c>
       <c r="E39" t="n">
-        <v>44.41632</v>
+        <v>44.19247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B40" t="n">
-        <v>2378</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>9.8515</v>
+        <v>9.20928</v>
       </c>
       <c r="E40" t="n">
-        <v>44.19247</v>
+        <v>44.35453</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>139</v>
+        <v>2598</v>
       </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>9.20928</v>
+        <v>8.26437</v>
       </c>
       <c r="E41" t="n">
-        <v>44.35453</v>
+        <v>44.22664</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>2598</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>8.26437</v>
+        <v>9.21045</v>
       </c>
       <c r="E42" t="n">
-        <v>44.22664</v>
+        <v>44.3362</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B43" t="n">
-        <v>145</v>
+        <v>2700</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
       <c r="D43" t="n">
-        <v>9.21045</v>
+        <v>9.35104</v>
       </c>
       <c r="E43" t="n">
-        <v>44.3362</v>
+        <v>44.35819</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>2700</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="n">
-        <v>9.35104</v>
+        <v>9.40992</v>
       </c>
       <c r="E44" t="n">
-        <v>44.35819</v>
+        <v>44.27377</v>
       </c>
     </row>
     <row r="45">
@@ -1314,16 +1308,16 @@
         <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>2803</v>
+        <v>2816</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
       </c>
       <c r="D45" t="n">
-        <v>9.48242</v>
+        <v>8.194798</v>
       </c>
       <c r="E45" t="n">
-        <v>44.58678</v>
+        <v>44.236248</v>
       </c>
     </row>
     <row r="46">
@@ -1331,16 +1325,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
       </c>
       <c r="D46" t="n">
-        <v>9.40992</v>
+        <v>8.50244</v>
       </c>
       <c r="E46" t="n">
-        <v>44.27377</v>
+        <v>44.4061</v>
       </c>
     </row>
     <row r="47">
@@ -1348,33 +1342,33 @@
         <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>2816</v>
+        <v>2913</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
       <c r="D47" t="n">
-        <v>8.194798</v>
+        <v>7.77634</v>
       </c>
       <c r="E47" t="n">
-        <v>44.236248</v>
+        <v>43.81484</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B48" t="n">
-        <v>167</v>
+        <v>3041</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
       </c>
       <c r="D48" t="n">
-        <v>8.50244</v>
+        <v>8.47703</v>
       </c>
       <c r="E48" t="n">
-        <v>44.4061</v>
+        <v>44.39531</v>
       </c>
     </row>
     <row r="49">
@@ -1382,118 +1376,118 @@
         <v>10</v>
       </c>
       <c r="B49" t="n">
-        <v>2913</v>
+        <v>3043</v>
       </c>
       <c r="C49" t="s">
         <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>7.77634</v>
+        <v>8.51543</v>
       </c>
       <c r="E49" t="n">
-        <v>43.81484</v>
+        <v>44.39091</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>3041</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
         <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>8.47703</v>
+        <v>8.91803</v>
       </c>
       <c r="E50" t="n">
-        <v>44.39531</v>
+        <v>44.61948</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B51" t="n">
-        <v>3043</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
         <v>56</v>
       </c>
       <c r="D51" t="n">
-        <v>8.51543</v>
+        <v>9.17495</v>
       </c>
       <c r="E51" t="n">
-        <v>44.39091</v>
+        <v>44.52931</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B52" t="n">
-        <v>171</v>
+        <v>3123</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
       </c>
       <c r="D52" t="n">
-        <v>8.91803</v>
+        <v>7.90804</v>
       </c>
       <c r="E52" t="n">
-        <v>44.61948</v>
+        <v>43.93014</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B53" t="n">
-        <v>175</v>
+        <v>3140</v>
       </c>
       <c r="C53" t="s">
         <v>58</v>
       </c>
       <c r="D53" t="n">
-        <v>9.17495</v>
+        <v>9.36156</v>
       </c>
       <c r="E53" t="n">
-        <v>44.52931</v>
+        <v>44.44327</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>3123</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
         <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>7.90804</v>
+        <v>8.62739</v>
       </c>
       <c r="E54" t="n">
-        <v>43.93014</v>
+        <v>44.46953</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B55" t="n">
-        <v>3140</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
         <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>9.36156</v>
+        <v>9.02329</v>
       </c>
       <c r="E55" t="n">
-        <v>44.44327</v>
+        <v>44.53176</v>
       </c>
     </row>
     <row r="56">
@@ -1501,16 +1495,16 @@
         <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
         <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>8.62739</v>
+        <v>8.19105</v>
       </c>
       <c r="E56" t="n">
-        <v>44.46953</v>
+        <v>44.36959</v>
       </c>
     </row>
     <row r="57">
@@ -1518,16 +1512,16 @@
         <v>5</v>
       </c>
       <c r="B57" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
       <c r="D57" t="n">
-        <v>9.02329</v>
+        <v>9.68419</v>
       </c>
       <c r="E57" t="n">
-        <v>44.53176</v>
+        <v>44.13732</v>
       </c>
     </row>
     <row r="58">
@@ -1535,83 +1529,49 @@
         <v>5</v>
       </c>
       <c r="B58" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
       </c>
       <c r="D58" t="n">
-        <v>8.19105</v>
+        <v>8.22002</v>
       </c>
       <c r="E58" t="n">
-        <v>44.36959</v>
+        <v>44.16397</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>184</v>
+        <v>3309</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
       </c>
       <c r="D59" t="n">
-        <v>9.68419</v>
+        <v>8.122222</v>
       </c>
       <c r="E59" t="n">
-        <v>44.13732</v>
+        <v>44.30791</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>186</v>
+        <v>3337</v>
       </c>
       <c r="C60" t="s">
         <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>8.22002</v>
+        <v>8.57833</v>
       </c>
       <c r="E60" t="n">
-        <v>44.16397</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3309</v>
-      </c>
-      <c r="C61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" t="n">
-        <v>8.122222</v>
-      </c>
-      <c r="E61" t="n">
-        <v>44.30791</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3337</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="n">
-        <v>8.57833</v>
-      </c>
-      <c r="E62" t="n">
         <v>44.38306</v>
       </c>
     </row>

--- a/notebooks/integrazioni_regionali/liguria/non_merged.xlsx
+++ b/notebooks/integrazioni_regionali/liguria/non_merged.xlsx
@@ -12,17 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t xml:space="preserve">from_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_sensor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t xml:space="preserve">dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_key</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_key.y</t>
+  </si>
+  <si>
     <t xml:space="preserve">lon</t>
   </si>
   <si>
@@ -50,6 +62,9 @@
     <t xml:space="preserve">Balestrino</t>
   </si>
   <si>
+    <t xml:space="preserve">Idrografica</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAPO VADO</t>
   </si>
   <si>
@@ -207,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">Valle Murialdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regionale ARPA Liguria</t>
   </si>
   <si>
     <t xml:space="preserve">Varazze</t>
@@ -257,14 +275,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E60" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E60"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="from_dataset"/>
-    <tableColumn id="2" name="from_sensor"/>
-    <tableColumn id="3" name="name"/>
-    <tableColumn id="4" name="lon"/>
-    <tableColumn id="5" name="lat"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I116" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I116"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="dataset"/>
+    <tableColumn id="2" name="key"/>
+    <tableColumn id="3" name="variable"/>
+    <tableColumn id="4" name="from_key"/>
+    <tableColumn id="5" name="name"/>
+    <tableColumn id="6" name="network"/>
+    <tableColumn id="7" name="sensor_key.y"/>
+    <tableColumn id="8" name="lon"/>
+    <tableColumn id="9" name="lat"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,1007 +593,3351 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" t="n">
+        <v>-1</v>
       </c>
       <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
         <v>9.45496</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>44.51447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>9.01832</v>
-      </c>
-      <c r="E3" t="n">
-        <v>44.43209</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.45496</v>
+      </c>
+      <c r="I3" t="n">
+        <v>44.51447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>8.57322</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.37234</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.01832</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44.43209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>7.68502</v>
-      </c>
-      <c r="E5" t="n">
-        <v>43.96126</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.01832</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44.43209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>322</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>8.16945</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44.12362</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.57322</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44.37234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
-        <v>8.44944</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44.25803</v>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.57322</v>
+      </c>
+      <c r="I7" t="n">
+        <v>44.37234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
-        <v>9.01824</v>
-      </c>
-      <c r="E8" t="n">
-        <v>44.58458</v>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.68502</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43.96126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>696</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>7.5549</v>
-      </c>
-      <c r="E9" t="n">
-        <v>43.82936</v>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.68502</v>
+      </c>
+      <c r="I9" t="n">
+        <v>43.96126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>916</v>
-      </c>
-      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="n">
-        <v>8.64615</v>
-      </c>
-      <c r="E10" t="n">
-        <v>44.39092</v>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>322</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.16945</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44.12362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>929</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+        <v>203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>7.68451</v>
-      </c>
-      <c r="E11" t="n">
-        <v>43.9895</v>
+        <v>203</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>322</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.16945</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44.12362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="n">
-        <v>8.33939</v>
-      </c>
-      <c r="E12" t="n">
-        <v>44.45176</v>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.44944</v>
+      </c>
+      <c r="I12" t="n">
+        <v>44.25803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>1045</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>9.03475</v>
-      </c>
-      <c r="E13" t="n">
-        <v>44.49291</v>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>27</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.44944</v>
+      </c>
+      <c r="I13" t="n">
+        <v>44.25803</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>57</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>9.10336</v>
-      </c>
-      <c r="E14" t="n">
-        <v>44.51715</v>
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.01824</v>
+      </c>
+      <c r="I14" t="n">
+        <v>44.58458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>8.32248</v>
-      </c>
-      <c r="E15" t="n">
-        <v>44.36694</v>
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>57</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.01824</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44.58458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
+        <v>228</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>8.9718</v>
-      </c>
-      <c r="E16" t="n">
-        <v>44.40302</v>
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="n">
+        <v>696</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.5549</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43.82936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
+        <v>228</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>8.92317</v>
-      </c>
-      <c r="E17" t="n">
-        <v>44.40816</v>
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>696</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.5549</v>
+      </c>
+      <c r="I17" t="n">
+        <v>43.82936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
+        <v>252</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>8.9726</v>
-      </c>
-      <c r="E18" t="n">
-        <v>44.42367</v>
+        <v>252</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>916</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.64615</v>
+      </c>
+      <c r="I18" t="n">
+        <v>44.39092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>1315</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
+        <v>252</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>9.0438</v>
-      </c>
-      <c r="E19" t="n">
-        <v>44.38237</v>
+        <v>252</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>916</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.64615</v>
+      </c>
+      <c r="I19" t="n">
+        <v>44.39092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B20" t="n">
-        <v>1318</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
+        <v>258</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1</v>
       </c>
       <c r="D20" t="n">
-        <v>9.01292</v>
-      </c>
-      <c r="E20" t="n">
-        <v>44.44908</v>
+        <v>258</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="n">
+        <v>929</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.68451</v>
+      </c>
+      <c r="I20" t="n">
+        <v>43.9895</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>1408</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
+        <v>258</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>8.9586</v>
-      </c>
-      <c r="E21" t="n">
-        <v>44.645</v>
+        <v>258</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>929</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.68451</v>
+      </c>
+      <c r="I21" t="n">
+        <v>43.9895</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>9.04717</v>
-      </c>
-      <c r="E22" t="n">
-        <v>44.44076</v>
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>61</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.33939</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44.45176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>9.8097</v>
-      </c>
-      <c r="E23" t="n">
-        <v>44.09449</v>
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>61</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.33939</v>
+      </c>
+      <c r="I23" t="n">
+        <v>44.45176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
-        <v>1539</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
+        <v>272</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>8.82328</v>
-      </c>
-      <c r="E24" t="n">
-        <v>44.54953</v>
+        <v>272</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1045</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.03475</v>
+      </c>
+      <c r="I24" t="n">
+        <v>44.49291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B25" t="n">
-        <v>108</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1</v>
       </c>
       <c r="D25" t="n">
-        <v>8.74603</v>
-      </c>
-      <c r="E25" t="n">
-        <v>44.43946</v>
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>68</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.10336</v>
+      </c>
+      <c r="I25" t="n">
+        <v>44.51715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>9.86892</v>
-      </c>
-      <c r="E26" t="n">
-        <v>44.12951</v>
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>68</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.10336</v>
+      </c>
+      <c r="I26" t="n">
+        <v>44.51715</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1</v>
       </c>
       <c r="D27" t="n">
-        <v>9.43978</v>
-      </c>
-      <c r="E27" t="n">
-        <v>44.5598</v>
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>69</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.32248</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44.36694</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>9.04769</v>
-      </c>
-      <c r="E28" t="n">
-        <v>44.51561</v>
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>69</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.32248</v>
+      </c>
+      <c r="I28" t="n">
+        <v>44.36694</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>1739</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>8.158406</v>
-      </c>
-      <c r="E29" t="n">
-        <v>44.30403</v>
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>76</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.9718</v>
+      </c>
+      <c r="I29" t="n">
+        <v>44.40302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>1745</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+        <v>75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8.86297</v>
-      </c>
-      <c r="E30" t="n">
-        <v>44.48905</v>
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>76</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.9718</v>
+      </c>
+      <c r="I30" t="n">
+        <v>44.40302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>1918</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1</v>
       </c>
       <c r="D31" t="n">
-        <v>9.4474</v>
-      </c>
-      <c r="E31" t="n">
-        <v>44.40482</v>
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>79</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.92317</v>
+      </c>
+      <c r="I31" t="n">
+        <v>44.40816</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
+        <v>78</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>7.5533</v>
-      </c>
-      <c r="E32" t="n">
-        <v>43.78481</v>
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>79</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.92317</v>
+      </c>
+      <c r="I32" t="n">
+        <v>44.40816</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1</v>
       </c>
       <c r="D33" t="n">
-        <v>9.18689</v>
-      </c>
-      <c r="E33" t="n">
-        <v>44.44588</v>
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>80</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8.9726</v>
+      </c>
+      <c r="I33" t="n">
+        <v>44.42367</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
+        <v>79</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>7.65607</v>
-      </c>
-      <c r="E34" t="n">
-        <v>43.93209</v>
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>80</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.9726</v>
+      </c>
+      <c r="I34" t="n">
+        <v>44.42367</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B35" t="n">
-        <v>132</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
+        <v>281</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1</v>
       </c>
       <c r="D35" t="n">
-        <v>9.12602</v>
-      </c>
-      <c r="E35" t="n">
-        <v>44.36616</v>
+        <v>281</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9.0438</v>
+      </c>
+      <c r="I35" t="n">
+        <v>44.38237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
+        <v>281</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>8.67306</v>
-      </c>
-      <c r="E36" t="n">
-        <v>44.51775</v>
+        <v>281</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1315</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9.0438</v>
+      </c>
+      <c r="I36" t="n">
+        <v>44.38237</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
+        <v>284</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1</v>
       </c>
       <c r="D37" t="n">
-        <v>9.45876</v>
-      </c>
-      <c r="E37" t="n">
-        <v>44.47287</v>
+        <v>284</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1318</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9.01292</v>
+      </c>
+      <c r="I37" t="n">
+        <v>44.44908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
-        <v>2311</v>
-      </c>
-      <c r="C38" t="s">
-        <v>43</v>
+        <v>284</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>9.62481</v>
-      </c>
-      <c r="E38" t="n">
-        <v>44.41632</v>
+        <v>284</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1318</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.01292</v>
+      </c>
+      <c r="I38" t="n">
+        <v>44.44908</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B39" t="n">
-        <v>2378</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
+        <v>295</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>9.8515</v>
-      </c>
-      <c r="E39" t="n">
-        <v>44.19247</v>
+        <v>295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1408</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.9586</v>
+      </c>
+      <c r="I39" t="n">
+        <v>44.645</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B40" t="n">
-        <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>9.20928</v>
-      </c>
-      <c r="E40" t="n">
-        <v>44.35453</v>
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="n">
+        <v>91</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.04717</v>
+      </c>
+      <c r="I40" t="n">
+        <v>44.44076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>2598</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
+        <v>90</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>8.26437</v>
-      </c>
-      <c r="E41" t="n">
-        <v>44.22664</v>
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="n">
+        <v>91</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9.04717</v>
+      </c>
+      <c r="I41" t="n">
+        <v>44.44076</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>145</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
+        <v>92</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1</v>
       </c>
       <c r="D42" t="n">
-        <v>9.21045</v>
-      </c>
-      <c r="E42" t="n">
-        <v>44.3362</v>
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="n">
+        <v>93</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9.8097</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44.09449</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C43" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>9.35104</v>
-      </c>
-      <c r="E43" t="n">
-        <v>44.35819</v>
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>93</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9.8097</v>
+      </c>
+      <c r="I43" t="n">
+        <v>44.09449</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B44" t="n">
-        <v>164</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
+        <v>304</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1</v>
       </c>
       <c r="D44" t="n">
-        <v>9.40992</v>
-      </c>
-      <c r="E44" t="n">
-        <v>44.27377</v>
+        <v>304</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1539</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8.82328</v>
+      </c>
+      <c r="I44" t="n">
+        <v>44.54953</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="n">
-        <v>2816</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1</v>
       </c>
       <c r="D45" t="n">
-        <v>8.194798</v>
-      </c>
-      <c r="E45" t="n">
-        <v>44.236248</v>
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>108</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.74603</v>
+      </c>
+      <c r="I45" t="n">
+        <v>44.43946</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B46" t="n">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
+        <v>106</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>8.50244</v>
-      </c>
-      <c r="E46" t="n">
-        <v>44.4061</v>
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>108</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8.74603</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44.43946</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="n">
-        <v>2913</v>
-      </c>
-      <c r="C47" t="s">
-        <v>52</v>
+        <v>108</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1</v>
       </c>
       <c r="D47" t="n">
-        <v>7.77634</v>
-      </c>
-      <c r="E47" t="n">
-        <v>43.81484</v>
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>110</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.86892</v>
+      </c>
+      <c r="I47" t="n">
+        <v>44.12951</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="n">
-        <v>3041</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>8.47703</v>
-      </c>
-      <c r="E48" t="n">
-        <v>44.39531</v>
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="n">
+        <v>110</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.86892</v>
+      </c>
+      <c r="I48" t="n">
+        <v>44.12951</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="n">
-        <v>3043</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
+        <v>111</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
-        <v>8.51543</v>
-      </c>
-      <c r="E49" t="n">
-        <v>44.39091</v>
+        <v>111</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>113</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.43978</v>
+      </c>
+      <c r="I49" t="n">
+        <v>44.5598</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>171</v>
-      </c>
-      <c r="C50" t="s">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>8.91803</v>
-      </c>
-      <c r="E50" t="n">
-        <v>44.61948</v>
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>113</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.43978</v>
+      </c>
+      <c r="I50" t="n">
+        <v>44.5598</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B51" t="n">
-        <v>175</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>9.17495</v>
-      </c>
-      <c r="E51" t="n">
-        <v>44.52931</v>
+        <v>117</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>119</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9.04769</v>
+      </c>
+      <c r="I51" t="n">
+        <v>44.51561</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="n">
-        <v>3123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>57</v>
+        <v>117</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>7.90804</v>
-      </c>
-      <c r="E52" t="n">
-        <v>43.93014</v>
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="n">
+        <v>119</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9.04769</v>
+      </c>
+      <c r="I52" t="n">
+        <v>44.51561</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
-        <v>3140</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
+        <v>314</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1</v>
       </c>
       <c r="D53" t="n">
-        <v>9.36156</v>
-      </c>
-      <c r="E53" t="n">
-        <v>44.44327</v>
+        <v>314</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1739</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8.158406</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.30403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>177</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
+        <v>314</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>8.62739</v>
-      </c>
-      <c r="E54" t="n">
-        <v>44.46953</v>
+        <v>314</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1739</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8.158406</v>
+      </c>
+      <c r="I54" t="n">
+        <v>44.30403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B55" t="n">
-        <v>178</v>
-      </c>
-      <c r="C55" t="s">
-        <v>60</v>
+        <v>315</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1</v>
       </c>
       <c r="D55" t="n">
-        <v>9.02329</v>
-      </c>
-      <c r="E55" t="n">
-        <v>44.53176</v>
+        <v>315</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1745</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8.86297</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44.48905</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B56" t="n">
-        <v>180</v>
-      </c>
-      <c r="C56" t="s">
-        <v>61</v>
+        <v>315</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>8.19105</v>
-      </c>
-      <c r="E56" t="n">
-        <v>44.36959</v>
+        <v>315</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1745</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8.86297</v>
+      </c>
+      <c r="I56" t="n">
+        <v>44.48905</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B57" t="n">
-        <v>184</v>
-      </c>
-      <c r="C57" t="s">
-        <v>62</v>
+        <v>335</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1</v>
       </c>
       <c r="D57" t="n">
-        <v>9.68419</v>
-      </c>
-      <c r="E57" t="n">
-        <v>44.13732</v>
+        <v>335</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1918</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9.4474</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44.40482</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>186</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
+        <v>335</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8.22002</v>
-      </c>
-      <c r="E58" t="n">
-        <v>44.16397</v>
+        <v>335</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1918</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9.4474</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44.40482</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B59" t="n">
-        <v>3309</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
+        <v>338</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>8.122222</v>
-      </c>
-      <c r="E59" t="n">
-        <v>44.30791</v>
+        <v>338</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1975</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7.5533</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43.78481</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B60" t="n">
+        <v>338</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>338</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1975</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7.5533</v>
+      </c>
+      <c r="I60" t="n">
+        <v>43.78481</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="n">
+        <v>340</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>340</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9.18689</v>
+      </c>
+      <c r="I61" t="n">
+        <v>44.44588</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="n">
+        <v>340</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>340</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9.18689</v>
+      </c>
+      <c r="I62" t="n">
+        <v>44.44588</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="n">
+        <v>126</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="n">
+        <v>128</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7.65607</v>
+      </c>
+      <c r="I63" t="n">
+        <v>43.93209</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="n">
+        <v>126</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>126</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>128</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7.65607</v>
+      </c>
+      <c r="I64" t="n">
+        <v>43.93209</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="n">
+        <v>130</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="n">
+        <v>132</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9.12602</v>
+      </c>
+      <c r="I65" t="n">
+        <v>44.36616</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="n">
+        <v>130</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>130</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>132</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9.12602</v>
+      </c>
+      <c r="I66" t="n">
+        <v>44.36616</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="n">
+        <v>133</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>133</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="n">
+        <v>135</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.67306</v>
+      </c>
+      <c r="I67" t="n">
+        <v>44.51775</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="n">
+        <v>133</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>133</v>
+      </c>
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>135</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8.67306</v>
+      </c>
+      <c r="I68" t="n">
+        <v>44.51775</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="n">
+        <v>134</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>134</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="n">
+        <v>136</v>
+      </c>
+      <c r="H69" t="n">
+        <v>9.45876</v>
+      </c>
+      <c r="I69" t="n">
+        <v>44.47287</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="n">
+        <v>134</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>134</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>136</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9.45876</v>
+      </c>
+      <c r="I70" t="n">
+        <v>44.47287</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="n">
+        <v>349</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>349</v>
+      </c>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2311</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9.62481</v>
+      </c>
+      <c r="I71" t="n">
+        <v>44.41632</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="n">
+        <v>349</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>349</v>
+      </c>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2311</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9.62481</v>
+      </c>
+      <c r="I72" t="n">
+        <v>44.41632</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="n">
+        <v>356</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>356</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2378</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9.8515</v>
+      </c>
+      <c r="I73" t="n">
+        <v>44.19247</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="n">
+        <v>356</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>356</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2378</v>
+      </c>
+      <c r="H74" t="n">
+        <v>9.8515</v>
+      </c>
+      <c r="I74" t="n">
+        <v>44.19247</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="n">
+        <v>137</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="n">
+        <v>139</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9.20928</v>
+      </c>
+      <c r="I75" t="n">
+        <v>44.35453</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="n">
+        <v>137</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>137</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="n">
+        <v>139</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9.20928</v>
+      </c>
+      <c r="I76" t="n">
+        <v>44.35453</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="n">
+        <v>369</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>369</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2598</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8.26437</v>
+      </c>
+      <c r="I77" t="n">
+        <v>44.22664</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="n">
+        <v>369</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>369</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2598</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8.26437</v>
+      </c>
+      <c r="I78" t="n">
+        <v>44.22664</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="n">
+        <v>143</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>143</v>
+      </c>
+      <c r="E79" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" t="n">
+        <v>145</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9.21045</v>
+      </c>
+      <c r="I79" t="n">
+        <v>44.3362</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="n">
+        <v>143</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>143</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="n">
+        <v>145</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9.21045</v>
+      </c>
+      <c r="I80" t="n">
+        <v>44.3362</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="n">
+        <v>381</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>381</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9.35104</v>
+      </c>
+      <c r="I81" t="n">
+        <v>44.35819</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="n">
+        <v>381</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>381</v>
+      </c>
+      <c r="E82" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9.35104</v>
+      </c>
+      <c r="I82" t="n">
+        <v>44.35819</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="n">
+        <v>162</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>162</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="n">
+        <v>164</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9.40992</v>
+      </c>
+      <c r="I83" t="n">
+        <v>44.27377</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="n">
+        <v>162</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>162</v>
+      </c>
+      <c r="E84" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="n">
+        <v>164</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9.40992</v>
+      </c>
+      <c r="I84" t="n">
+        <v>44.27377</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="n">
+        <v>387</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>387</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2816</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8.194798</v>
+      </c>
+      <c r="I85" t="n">
+        <v>44.236248</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="n">
+        <v>387</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>387</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2816</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8.194798</v>
+      </c>
+      <c r="I86" t="n">
+        <v>44.236248</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="n">
+        <v>165</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="n">
+        <v>167</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.50244</v>
+      </c>
+      <c r="I87" t="n">
+        <v>44.4061</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="n">
+        <v>165</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="n">
+        <v>167</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8.50244</v>
+      </c>
+      <c r="I88" t="n">
+        <v>44.4061</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="n">
+        <v>390</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>390</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2913</v>
+      </c>
+      <c r="H89" t="n">
+        <v>7.77634</v>
+      </c>
+      <c r="I89" t="n">
+        <v>43.81484</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="n">
+        <v>390</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>390</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2913</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7.77634</v>
+      </c>
+      <c r="I90" t="n">
+        <v>43.81484</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="n">
+        <v>406</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>406</v>
+      </c>
+      <c r="E91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3041</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8.47703</v>
+      </c>
+      <c r="I91" t="n">
+        <v>44.39531</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="n">
+        <v>406</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>406</v>
+      </c>
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3041</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8.47703</v>
+      </c>
+      <c r="I92" t="n">
+        <v>44.39531</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="n">
+        <v>408</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>408</v>
+      </c>
+      <c r="E93" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3043</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8.51543</v>
+      </c>
+      <c r="I93" t="n">
+        <v>44.39091</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="n">
+        <v>408</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>408</v>
+      </c>
+      <c r="E94" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3043</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.51543</v>
+      </c>
+      <c r="I94" t="n">
+        <v>44.39091</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="n">
+        <v>169</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>169</v>
+      </c>
+      <c r="E95" t="s">
+        <v>60</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="n">
+        <v>171</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8.91803</v>
+      </c>
+      <c r="I95" t="n">
+        <v>44.61948</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="n">
+        <v>169</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>169</v>
+      </c>
+      <c r="E96" t="s">
+        <v>60</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="n">
+        <v>171</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8.91803</v>
+      </c>
+      <c r="I96" t="n">
+        <v>44.61948</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="n">
+        <v>173</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>173</v>
+      </c>
+      <c r="E97" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>175</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9.17495</v>
+      </c>
+      <c r="I97" t="n">
+        <v>44.52931</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="n">
+        <v>173</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>173</v>
+      </c>
+      <c r="E98" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="n">
+        <v>175</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9.17495</v>
+      </c>
+      <c r="I98" t="n">
+        <v>44.52931</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="n">
+        <v>413</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>413</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3123</v>
+      </c>
+      <c r="H99" t="n">
+        <v>7.90804</v>
+      </c>
+      <c r="I99" t="n">
+        <v>43.93014</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="n">
+        <v>413</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>413</v>
+      </c>
+      <c r="E100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3123</v>
+      </c>
+      <c r="H100" t="n">
+        <v>7.90804</v>
+      </c>
+      <c r="I100" t="n">
+        <v>43.93014</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="n">
+        <v>416</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>416</v>
+      </c>
+      <c r="E101" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3140</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9.36156</v>
+      </c>
+      <c r="I101" t="n">
+        <v>44.44327</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="n">
+        <v>416</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>416</v>
+      </c>
+      <c r="E102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3140</v>
+      </c>
+      <c r="H102" t="n">
+        <v>9.36156</v>
+      </c>
+      <c r="I102" t="n">
+        <v>44.44327</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="n">
+        <v>175</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>175</v>
+      </c>
+      <c r="E103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="n">
+        <v>177</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8.62739</v>
+      </c>
+      <c r="I103" t="n">
+        <v>44.46953</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="n">
+        <v>175</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>175</v>
+      </c>
+      <c r="E104" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="n">
+        <v>177</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8.62739</v>
+      </c>
+      <c r="I104" t="n">
+        <v>44.46953</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="n">
+        <v>176</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>176</v>
+      </c>
+      <c r="E105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" t="n">
+        <v>178</v>
+      </c>
+      <c r="H105" t="n">
+        <v>9.02329</v>
+      </c>
+      <c r="I105" t="n">
+        <v>44.53176</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="n">
+        <v>176</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>176</v>
+      </c>
+      <c r="E106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="n">
+        <v>178</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9.02329</v>
+      </c>
+      <c r="I106" t="n">
+        <v>44.53176</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="n">
+        <v>178</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>178</v>
+      </c>
+      <c r="E107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="n">
+        <v>180</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8.19105</v>
+      </c>
+      <c r="I107" t="n">
+        <v>44.36959</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="n">
+        <v>178</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>178</v>
+      </c>
+      <c r="E108" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="n">
+        <v>180</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8.19105</v>
+      </c>
+      <c r="I108" t="n">
+        <v>44.36959</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="n">
+        <v>182</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>182</v>
+      </c>
+      <c r="E109" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="n">
+        <v>184</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9.68419</v>
+      </c>
+      <c r="I109" t="n">
+        <v>44.13732</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="n">
+        <v>182</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>182</v>
+      </c>
+      <c r="E110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="n">
+        <v>184</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9.68419</v>
+      </c>
+      <c r="I110" t="n">
+        <v>44.13732</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="n">
+        <v>184</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>184</v>
+      </c>
+      <c r="E111" t="s">
+        <v>68</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" t="n">
+        <v>186</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8.22002</v>
+      </c>
+      <c r="I111" t="n">
+        <v>44.16397</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="n">
+        <v>184</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>184</v>
+      </c>
+      <c r="E112" t="s">
+        <v>68</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="n">
+        <v>186</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8.22002</v>
+      </c>
+      <c r="I112" t="n">
+        <v>44.16397</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="n">
+        <v>420</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>420</v>
+      </c>
+      <c r="E113" t="s">
+        <v>69</v>
+      </c>
+      <c r="F113" t="s">
+        <v>70</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3309</v>
+      </c>
+      <c r="H113" t="n">
+        <v>8.122222</v>
+      </c>
+      <c r="I113" t="n">
+        <v>44.30791</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="n">
+        <v>420</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>420</v>
+      </c>
+      <c r="E114" t="s">
+        <v>69</v>
+      </c>
+      <c r="F114" t="s">
+        <v>70</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3309</v>
+      </c>
+      <c r="H114" t="n">
+        <v>8.122222</v>
+      </c>
+      <c r="I114" t="n">
+        <v>44.30791</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="n">
+        <v>423</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>423</v>
+      </c>
+      <c r="E115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" t="n">
         <v>3337</v>
       </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="H115" t="n">
         <v>8.57833</v>
       </c>
-      <c r="E60" t="n">
+      <c r="I115" t="n">
+        <v>44.38306</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="n">
+        <v>423</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>423</v>
+      </c>
+      <c r="E116" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3337</v>
+      </c>
+      <c r="H116" t="n">
+        <v>8.57833</v>
+      </c>
+      <c r="I116" t="n">
         <v>44.38306</v>
       </c>
     </row>
